--- a/assets/excel/2021_4-3-1.xlsx
+++ b/assets/excel/2021_4-3-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hannover\Dez15-Uebergreifende-Analysen\Projekte\Integrationsmonitoring_2021\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471F7B0F-4408-4C4D-A667-2F1A6842BCDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D9F32B-B66A-4E2C-BE4F-0133FD009361}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13110" xr2:uid="{20965728-CEF5-43F8-82AF-E84F8D6D6224}"/>
   </bookViews>
@@ -118,9 +118,6 @@
     <t>WS 2019/20</t>
   </si>
   <si>
-    <t>1) Aufgeführt sind die fünf häufigsten Staatsangehörigkeiten der ausländischen Studierenden im jeweiligen Wintersemester in Niedersachsen.</t>
-  </si>
-  <si>
     <t>Quelle: Hochschulen, ICE Niedersachsen</t>
   </si>
   <si>
@@ -164,6 +161,9 @@
   </si>
   <si>
     <t>Iran Islamische Republik</t>
+  </si>
+  <si>
+    <t>1) Aufgeführt sind die fünf häufigsten Staatsangehörigkeiten im aktuellen Berichtsjahr der ausländischen Studierenden im jeweiligen Wintersemester in Niedersachsen.</t>
   </si>
 </sst>
 </file>
@@ -776,7 +776,9 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="B1:M115"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A62" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -786,7 +788,7 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -954,10 +956,10 @@
     </row>
     <row r="11" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="15">
         <v>4286</v>
@@ -990,10 +992,10 @@
     </row>
     <row r="12" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="15">
         <v>1919</v>
@@ -1026,10 +1028,10 @@
     </row>
     <row r="13" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="15">
         <v>1751</v>
@@ -1062,10 +1064,10 @@
     </row>
     <row r="14" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="15">
         <v>1502</v>
@@ -1098,10 +1100,10 @@
     </row>
     <row r="15" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="15">
         <v>1124</v>
@@ -1134,10 +1136,10 @@
     </row>
     <row r="16" spans="2:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="D16" s="17">
         <v>25111</v>
@@ -1169,7 +1171,7 @@
     </row>
     <row r="17" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>26</v>
@@ -1205,7 +1207,7 @@
     </row>
     <row r="18" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>26</v>
@@ -1241,7 +1243,7 @@
     </row>
     <row r="19" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>26</v>
@@ -1277,7 +1279,7 @@
     </row>
     <row r="20" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>26</v>
@@ -1313,7 +1315,7 @@
     </row>
     <row r="21" spans="2:13" s="6" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>26</v>
@@ -1349,7 +1351,7 @@
     </row>
     <row r="22" spans="2:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>26</v>
@@ -1384,7 +1386,7 @@
     </row>
     <row r="23" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>25</v>
@@ -1420,7 +1422,7 @@
     </row>
     <row r="24" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>25</v>
@@ -1456,7 +1458,7 @@
     </row>
     <row r="25" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>25</v>
@@ -1492,7 +1494,7 @@
     </row>
     <row r="26" spans="2:13" s="6" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>25</v>
@@ -1528,7 +1530,7 @@
     </row>
     <row r="27" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>25</v>
@@ -1564,7 +1566,7 @@
     </row>
     <row r="28" spans="2:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>25</v>
@@ -1599,7 +1601,7 @@
     </row>
     <row r="29" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>24</v>
@@ -1635,7 +1637,7 @@
     </row>
     <row r="30" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>24</v>
@@ -1671,7 +1673,7 @@
     </row>
     <row r="31" spans="2:13" s="6" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>24</v>
@@ -1707,7 +1709,7 @@
     </row>
     <row r="32" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>24</v>
@@ -1743,7 +1745,7 @@
     </row>
     <row r="33" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>24</v>
@@ -1779,7 +1781,7 @@
     </row>
     <row r="34" spans="2:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>24</v>
@@ -1814,7 +1816,7 @@
     </row>
     <row r="35" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>23</v>
@@ -1850,7 +1852,7 @@
     </row>
     <row r="36" spans="2:13" s="6" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>23</v>
@@ -1886,7 +1888,7 @@
     </row>
     <row r="37" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>23</v>
@@ -1922,7 +1924,7 @@
     </row>
     <row r="38" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>23</v>
@@ -1958,7 +1960,7 @@
     </row>
     <row r="39" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>23</v>
@@ -1994,7 +1996,7 @@
     </row>
     <row r="40" spans="2:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>23</v>
@@ -2029,7 +2031,7 @@
     </row>
     <row r="41" spans="2:13" s="6" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>22</v>
@@ -2065,7 +2067,7 @@
     </row>
     <row r="42" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>22</v>
@@ -2100,7 +2102,7 @@
     </row>
     <row r="43" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>22</v>
@@ -2135,7 +2137,7 @@
     </row>
     <row r="44" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>22</v>
@@ -2170,7 +2172,7 @@
     </row>
     <row r="45" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>22</v>
@@ -2205,7 +2207,7 @@
     </row>
     <row r="46" spans="2:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C46" s="16" t="s">
         <v>22</v>
@@ -2240,7 +2242,7 @@
     </row>
     <row r="47" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>21</v>
@@ -2275,7 +2277,7 @@
     </row>
     <row r="48" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>21</v>
@@ -2310,7 +2312,7 @@
     </row>
     <row r="49" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>21</v>
@@ -2345,7 +2347,7 @@
     </row>
     <row r="50" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>21</v>
@@ -2380,7 +2382,7 @@
     </row>
     <row r="51" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>21</v>
@@ -2415,7 +2417,7 @@
     </row>
     <row r="52" spans="2:12" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C52" s="16" t="s">
         <v>21</v>
@@ -2450,7 +2452,7 @@
     </row>
     <row r="53" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>20</v>
@@ -2485,7 +2487,7 @@
     </row>
     <row r="54" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>20</v>
@@ -2520,7 +2522,7 @@
     </row>
     <row r="55" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>20</v>
@@ -2555,7 +2557,7 @@
     </row>
     <row r="56" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>20</v>
@@ -2590,7 +2592,7 @@
     </row>
     <row r="57" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>20</v>
@@ -2625,7 +2627,7 @@
     </row>
     <row r="58" spans="2:12" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>20</v>
@@ -2660,7 +2662,7 @@
     </row>
     <row r="59" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>19</v>
@@ -2695,7 +2697,7 @@
     </row>
     <row r="60" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>19</v>
@@ -2730,7 +2732,7 @@
     </row>
     <row r="61" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>19</v>
@@ -2765,7 +2767,7 @@
     </row>
     <row r="62" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>19</v>
@@ -2800,7 +2802,7 @@
     </row>
     <row r="63" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>19</v>
@@ -2835,7 +2837,7 @@
     </row>
     <row r="64" spans="2:12" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C64" s="16" t="s">
         <v>19</v>
@@ -2870,7 +2872,7 @@
     </row>
     <row r="65" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C65" s="14" t="s">
         <v>18</v>
@@ -2905,7 +2907,7 @@
     </row>
     <row r="66" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C66" s="14" t="s">
         <v>18</v>
@@ -2940,7 +2942,7 @@
     </row>
     <row r="67" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>18</v>
@@ -2975,7 +2977,7 @@
     </row>
     <row r="68" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>18</v>
@@ -3010,7 +3012,7 @@
     </row>
     <row r="69" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>18</v>
@@ -3045,7 +3047,7 @@
     </row>
     <row r="70" spans="2:12" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C70" s="16" t="s">
         <v>18</v>
@@ -3080,7 +3082,7 @@
     </row>
     <row r="71" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>17</v>
@@ -3115,7 +3117,7 @@
     </row>
     <row r="72" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>17</v>
@@ -3150,7 +3152,7 @@
     </row>
     <row r="73" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>17</v>
@@ -3185,7 +3187,7 @@
     </row>
     <row r="74" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>17</v>
@@ -3220,7 +3222,7 @@
     </row>
     <row r="75" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>17</v>
@@ -3255,7 +3257,7 @@
     </row>
     <row r="76" spans="2:12" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C76" s="16" t="s">
         <v>17</v>
@@ -3290,7 +3292,7 @@
     </row>
     <row r="77" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C77" s="14" t="s">
         <v>16</v>
@@ -3325,7 +3327,7 @@
     </row>
     <row r="78" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>16</v>
@@ -3360,7 +3362,7 @@
     </row>
     <row r="79" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C79" s="14" t="s">
         <v>16</v>
@@ -3395,7 +3397,7 @@
     </row>
     <row r="80" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>16</v>
@@ -3430,7 +3432,7 @@
     </row>
     <row r="81" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C81" s="14" t="s">
         <v>16</v>
@@ -3465,7 +3467,7 @@
     </row>
     <row r="82" spans="2:12" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C82" s="16" t="s">
         <v>16</v>
@@ -3500,7 +3502,7 @@
     </row>
     <row r="83" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C83" s="14" t="s">
         <v>15</v>
@@ -3535,7 +3537,7 @@
     </row>
     <row r="84" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>15</v>
@@ -3570,7 +3572,7 @@
     </row>
     <row r="85" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>15</v>
@@ -3605,7 +3607,7 @@
     </row>
     <row r="86" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>15</v>
@@ -3640,7 +3642,7 @@
     </row>
     <row r="87" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>15</v>
@@ -3675,7 +3677,7 @@
     </row>
     <row r="88" spans="2:12" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C88" s="16" t="s">
         <v>15</v>
@@ -3710,7 +3712,7 @@
     </row>
     <row r="89" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C89" s="14" t="s">
         <v>14</v>
@@ -3745,7 +3747,7 @@
     </row>
     <row r="90" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>14</v>
@@ -3780,7 +3782,7 @@
     </row>
     <row r="91" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C91" s="14" t="s">
         <v>14</v>
@@ -3815,7 +3817,7 @@
     </row>
     <row r="92" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C92" s="14" t="s">
         <v>14</v>
@@ -3850,7 +3852,7 @@
     </row>
     <row r="93" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C93" s="14" t="s">
         <v>14</v>
@@ -3885,7 +3887,7 @@
     </row>
     <row r="94" spans="2:12" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C94" s="16" t="s">
         <v>14</v>
@@ -3920,7 +3922,7 @@
     </row>
     <row r="95" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C95" s="14" t="s">
         <v>13</v>
@@ -3955,7 +3957,7 @@
     </row>
     <row r="96" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C96" s="14" t="s">
         <v>13</v>
@@ -3990,7 +3992,7 @@
     </row>
     <row r="97" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C97" s="14" t="s">
         <v>13</v>
@@ -4025,7 +4027,7 @@
     </row>
     <row r="98" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C98" s="14" t="s">
         <v>13</v>
@@ -4060,7 +4062,7 @@
     </row>
     <row r="99" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C99" s="14" t="s">
         <v>13</v>
@@ -4095,7 +4097,7 @@
     </row>
     <row r="100" spans="2:12" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C100" s="16" t="s">
         <v>13</v>
@@ -4130,7 +4132,7 @@
     </row>
     <row r="101" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C101" s="14" t="s">
         <v>12</v>
@@ -4165,7 +4167,7 @@
     </row>
     <row r="102" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C102" s="14" t="s">
         <v>12</v>
@@ -4200,7 +4202,7 @@
     </row>
     <row r="103" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C103" s="14" t="s">
         <v>12</v>
@@ -4235,7 +4237,7 @@
     </row>
     <row r="104" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C104" s="14" t="s">
         <v>12</v>
@@ -4270,7 +4272,7 @@
     </row>
     <row r="105" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C105" s="14" t="s">
         <v>12</v>
@@ -4305,7 +4307,7 @@
     </row>
     <row r="106" spans="2:12" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C106" s="16" t="s">
         <v>12</v>
@@ -4353,7 +4355,7 @@
     </row>
     <row r="108" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="11" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
@@ -4380,7 +4382,7 @@
     </row>
     <row r="110" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
@@ -4396,22 +4398,22 @@
     <row r="111" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="112" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113" spans="2:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="114" spans="2:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" spans="2:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
